--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cxcl12-Cxcr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cxcl12-Cxcr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,7 +534,7 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>145.002022</v>
+        <v>268.2087325</v>
       </c>
       <c r="H2">
-        <v>290.004044</v>
+        <v>536.417465</v>
       </c>
       <c r="I2">
-        <v>0.2376076076529671</v>
+        <v>0.4408953672422407</v>
       </c>
       <c r="J2">
-        <v>0.1752271928451109</v>
+        <v>0.3544767530189387</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.7166990000000001</v>
+        <v>0.358189</v>
       </c>
       <c r="N2">
-        <v>2.150097</v>
+        <v>0.716378</v>
       </c>
       <c r="O2">
-        <v>0.2276207788704612</v>
+        <v>0.052978466298774</v>
       </c>
       <c r="P2">
-        <v>0.2276207788704611</v>
+        <v>0.03595390511601538</v>
       </c>
       <c r="Q2">
-        <v>103.922804165378</v>
+        <v>96.06941768544249</v>
       </c>
       <c r="R2">
-        <v>623.5368249922681</v>
+        <v>384.27767074177</v>
       </c>
       <c r="S2">
-        <v>0.05408442871951532</v>
+        <v>0.02335796035472864</v>
       </c>
       <c r="T2">
-        <v>0.03988535011468863</v>
+        <v>0.01274482354387614</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -605,51 +605,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>145.002022</v>
+        <v>268.2087325</v>
       </c>
       <c r="H3">
-        <v>290.004044</v>
+        <v>536.417465</v>
       </c>
       <c r="I3">
-        <v>0.2376076076529671</v>
+        <v>0.4408953672422407</v>
       </c>
       <c r="J3">
-        <v>0.1752271928451109</v>
+        <v>0.3544767530189387</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>2.431954666666666</v>
+        <v>0.574863</v>
       </c>
       <c r="N3">
-        <v>7.295864</v>
+        <v>1.724589</v>
       </c>
       <c r="O3">
-        <v>0.7723792211295388</v>
+        <v>0.08502595018806307</v>
       </c>
       <c r="P3">
-        <v>0.7723792211295388</v>
+        <v>0.08655445766079338</v>
       </c>
       <c r="Q3">
-        <v>352.6383440790026</v>
+        <v>154.1832765911475</v>
       </c>
       <c r="R3">
-        <v>2115.830064474016</v>
+        <v>925.0996595468849</v>
       </c>
       <c r="S3">
-        <v>0.1835231789334518</v>
+        <v>0.03748754753328653</v>
       </c>
       <c r="T3">
-        <v>0.1353418427304222</v>
+        <v>0.03068154311091324</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>268.2087325</v>
+      </c>
+      <c r="H4">
+        <v>536.417465</v>
+      </c>
+      <c r="I4">
+        <v>0.4408953672422407</v>
+      </c>
+      <c r="J4">
+        <v>0.3544767530189387</v>
+      </c>
+      <c r="K4">
         <v>3</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>295.9742430000001</v>
-      </c>
-      <c r="H4">
-        <v>887.9227290000001</v>
-      </c>
-      <c r="I4">
-        <v>0.4849982837213673</v>
-      </c>
-      <c r="J4">
-        <v>0.5365035780881736</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.7166990000000001</v>
+        <v>5.590969</v>
       </c>
       <c r="N4">
-        <v>2.150097</v>
+        <v>16.772907</v>
       </c>
       <c r="O4">
-        <v>0.2276207788704612</v>
+        <v>0.8269404217996371</v>
       </c>
       <c r="P4">
-        <v>0.2276207788704611</v>
+        <v>0.8418062905306279</v>
       </c>
       <c r="Q4">
-        <v>212.1244439838571</v>
+        <v>1499.546708936793</v>
       </c>
       <c r="R4">
-        <v>1909.119995854713</v>
+        <v>8997.280253620755</v>
       </c>
       <c r="S4">
-        <v>0.1103956870914945</v>
+        <v>0.3645942009568044</v>
       </c>
       <c r="T4">
-        <v>0.1221193623112194</v>
+        <v>0.2984007605382143</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -723,22 +723,22 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>295.9742430000001</v>
+        <v>268.2087325</v>
       </c>
       <c r="H5">
-        <v>887.9227290000001</v>
+        <v>536.417465</v>
       </c>
       <c r="I5">
-        <v>0.4849982837213673</v>
+        <v>0.4408953672422407</v>
       </c>
       <c r="J5">
-        <v>0.5365035780881736</v>
+        <v>0.3544767530189387</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,33 +747,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.431954666666666</v>
+        <v>0.237009</v>
       </c>
       <c r="N5">
-        <v>7.295864</v>
+        <v>0.7110270000000001</v>
       </c>
       <c r="O5">
-        <v>0.7723792211295388</v>
+        <v>0.0350551617135259</v>
       </c>
       <c r="P5">
-        <v>0.7723792211295388</v>
+        <v>0.03568534669256324</v>
       </c>
       <c r="Q5">
-        <v>719.7959414769841</v>
+        <v>63.56788348109251</v>
       </c>
       <c r="R5">
-        <v>6478.163473292857</v>
+        <v>381.407300886555</v>
       </c>
       <c r="S5">
-        <v>0.3746025966298728</v>
+        <v>0.01545565839742114</v>
       </c>
       <c r="T5">
-        <v>0.4143842157769543</v>
+        <v>0.01264962582593494</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,122 +782,122 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.1807913333333333</v>
+        <v>295.9742430000001</v>
       </c>
       <c r="H6">
-        <v>0.542374</v>
+        <v>887.9227290000001</v>
       </c>
       <c r="I6">
-        <v>0.0002962537736040912</v>
+        <v>0.4865377474677459</v>
       </c>
       <c r="J6">
-        <v>0.0003277149938370313</v>
+        <v>0.5867593552488733</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M6">
-        <v>0.7166990000000001</v>
+        <v>0.358189</v>
       </c>
       <c r="N6">
-        <v>2.150097</v>
+        <v>0.716378</v>
       </c>
       <c r="O6">
-        <v>0.2276207788704612</v>
+        <v>0.052978466298774</v>
       </c>
       <c r="P6">
-        <v>0.2276207788704611</v>
+        <v>0.03595390511601538</v>
       </c>
       <c r="Q6">
-        <v>0.1295729678086667</v>
+        <v>106.014718125927</v>
       </c>
       <c r="R6">
-        <v>1.166156710278</v>
+        <v>636.088308755562</v>
       </c>
       <c r="S6">
-        <v>6.743351469107652E-05</v>
+        <v>0.02577602365730139</v>
       </c>
       <c r="T6">
-        <v>7.459474214471345E-05</v>
+        <v>0.02109629018455235</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
       <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>295.9742430000001</v>
+      </c>
+      <c r="H7">
+        <v>887.9227290000001</v>
+      </c>
+      <c r="I7">
+        <v>0.4865377474677459</v>
+      </c>
+      <c r="J7">
+        <v>0.5867593552488733</v>
+      </c>
+      <c r="K7">
         <v>2</v>
       </c>
-      <c r="F7">
+      <c r="L7">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G7">
-        <v>0.1807913333333333</v>
-      </c>
-      <c r="H7">
-        <v>0.542374</v>
-      </c>
-      <c r="I7">
-        <v>0.0002962537736040912</v>
-      </c>
-      <c r="J7">
-        <v>0.0003277149938370313</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
       <c r="M7">
-        <v>2.431954666666666</v>
+        <v>0.574863</v>
       </c>
       <c r="N7">
-        <v>7.295864</v>
+        <v>1.724589</v>
       </c>
       <c r="O7">
-        <v>0.7723792211295388</v>
+        <v>0.08502595018806307</v>
       </c>
       <c r="P7">
-        <v>0.7723792211295388</v>
+        <v>0.08655445766079338</v>
       </c>
       <c r="Q7">
-        <v>0.4396763267928889</v>
+        <v>170.144641253709</v>
       </c>
       <c r="R7">
-        <v>3.957086941136</v>
+        <v>1531.301771283381</v>
       </c>
       <c r="S7">
-        <v>0.0002288202589130147</v>
+        <v>0.04136833428080497</v>
       </c>
       <c r="T7">
-        <v>0.0002531202516923179</v>
+        <v>0.05078663777096303</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,60 +906,60 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>30.755622</v>
+        <v>295.9742430000001</v>
       </c>
       <c r="H8">
-        <v>61.511244</v>
+        <v>887.9227290000001</v>
       </c>
       <c r="I8">
-        <v>0.05039770938710746</v>
+        <v>0.4865377474677459</v>
       </c>
       <c r="J8">
-        <v>0.03716652521759548</v>
+        <v>0.5867593552488733</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.7166990000000001</v>
+        <v>5.590969</v>
       </c>
       <c r="N8">
-        <v>2.150097</v>
+        <v>16.772907</v>
       </c>
       <c r="O8">
-        <v>0.2276207788704612</v>
+        <v>0.8269404217996371</v>
       </c>
       <c r="P8">
-        <v>0.2276207788704611</v>
+        <v>0.8418062905306279</v>
       </c>
       <c r="Q8">
-        <v>22.042523531778</v>
+        <v>1654.782817411467</v>
       </c>
       <c r="R8">
-        <v>132.255141190668</v>
+        <v>14893.04535670321</v>
       </c>
       <c r="S8">
-        <v>0.01147156586398055</v>
+        <v>0.4023377301124231</v>
       </c>
       <c r="T8">
-        <v>0.008459873417937717</v>
+        <v>0.493937716276197</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -971,22 +971,22 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>30.755622</v>
+        <v>295.9742430000001</v>
       </c>
       <c r="H9">
-        <v>61.511244</v>
+        <v>887.9227290000001</v>
       </c>
       <c r="I9">
-        <v>0.05039770938710746</v>
+        <v>0.4865377474677459</v>
       </c>
       <c r="J9">
-        <v>0.03716652521759548</v>
+        <v>0.5867593552488733</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,33 +995,33 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.431954666666666</v>
+        <v>0.237009</v>
       </c>
       <c r="N9">
-        <v>7.295864</v>
+        <v>0.7110270000000001</v>
       </c>
       <c r="O9">
-        <v>0.7723792211295388</v>
+        <v>0.0350551617135259</v>
       </c>
       <c r="P9">
-        <v>0.7723792211295388</v>
+        <v>0.03568534669256324</v>
       </c>
       <c r="Q9">
-        <v>74.796278449136</v>
+        <v>70.14855935918702</v>
       </c>
       <c r="R9">
-        <v>448.777670694816</v>
+        <v>631.3370342326831</v>
       </c>
       <c r="S9">
-        <v>0.03892614352312691</v>
+        <v>0.01705565941721646</v>
       </c>
       <c r="T9">
-        <v>0.02870665179965776</v>
+        <v>0.02093871101716092</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>137.6068803333333</v>
+        <v>0.01708533333333333</v>
       </c>
       <c r="H10">
-        <v>412.820641</v>
+        <v>0.051256</v>
       </c>
       <c r="I10">
-        <v>0.2254895565014359</v>
+        <v>2.808575337663958E-05</v>
       </c>
       <c r="J10">
-        <v>0.2494358391462612</v>
+        <v>3.387112023419805E-05</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M10">
-        <v>0.7166990000000001</v>
+        <v>0.358189</v>
       </c>
       <c r="N10">
-        <v>2.150097</v>
+        <v>0.716378</v>
       </c>
       <c r="O10">
-        <v>0.2276207788704612</v>
+        <v>0.052978466298774</v>
       </c>
       <c r="P10">
-        <v>0.2276207788704611</v>
+        <v>0.03595390511601538</v>
       </c>
       <c r="Q10">
-        <v>98.62271352801967</v>
+        <v>0.006119778461333334</v>
       </c>
       <c r="R10">
-        <v>887.604421752177</v>
+        <v>0.036718670768</v>
       </c>
       <c r="S10">
-        <v>0.05132610847801171</v>
+        <v>1.487940138739978E-06</v>
       </c>
       <c r="T10">
-        <v>0.05677677998467905</v>
+        <v>1.217799043073505E-06</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>137.6068803333333</v>
+        <v>0.01708533333333333</v>
       </c>
       <c r="H11">
-        <v>412.820641</v>
+        <v>0.051256</v>
       </c>
       <c r="I11">
-        <v>0.2254895565014359</v>
+        <v>2.808575337663958E-05</v>
       </c>
       <c r="J11">
-        <v>0.2494358391462612</v>
+        <v>3.387112023419805E-05</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>2.431954666666666</v>
+        <v>0.574863</v>
       </c>
       <c r="N11">
-        <v>7.295864</v>
+        <v>1.724589</v>
       </c>
       <c r="O11">
-        <v>0.7723792211295388</v>
+        <v>0.08502595018806307</v>
       </c>
       <c r="P11">
-        <v>0.7723792211295388</v>
+        <v>0.08655445766079338</v>
       </c>
       <c r="Q11">
-        <v>334.6536947920915</v>
+        <v>0.009821725976000001</v>
       </c>
       <c r="R11">
-        <v>3011.883253128824</v>
+        <v>0.088395533784</v>
       </c>
       <c r="S11">
-        <v>0.1741634480234242</v>
+        <v>2.388017867596381E-06</v>
       </c>
       <c r="T11">
-        <v>0.1926590591615822</v>
+        <v>2.931696442234537E-06</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.01708533333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.051256</v>
+      </c>
+      <c r="I12">
+        <v>2.808575337663958E-05</v>
+      </c>
+      <c r="J12">
+        <v>3.387112023419805E-05</v>
+      </c>
+      <c r="K12">
         <v>3</v>
       </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>0.738772</v>
-      </c>
-      <c r="H12">
-        <v>2.216316</v>
-      </c>
-      <c r="I12">
-        <v>0.001210588963518025</v>
-      </c>
-      <c r="J12">
-        <v>0.00133914970902166</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.7166990000000001</v>
+        <v>5.590969</v>
       </c>
       <c r="N12">
-        <v>2.150097</v>
+        <v>16.772907</v>
       </c>
       <c r="O12">
-        <v>0.2276207788704612</v>
+        <v>0.8269404217996371</v>
       </c>
       <c r="P12">
-        <v>0.2276207788704611</v>
+        <v>0.8418062905306279</v>
       </c>
       <c r="Q12">
-        <v>0.5294771536280001</v>
+        <v>0.09552356902133334</v>
       </c>
       <c r="R12">
-        <v>4.765294382652</v>
+        <v>0.859712121192</v>
       </c>
       <c r="S12">
-        <v>0.0002755552027679571</v>
+        <v>2.322524474383892E-05</v>
       </c>
       <c r="T12">
-        <v>0.0003048182997916617</v>
+        <v>2.851292208046715E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,22 +1219,22 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.738772</v>
+        <v>0.01708533333333333</v>
       </c>
       <c r="H13">
-        <v>2.216316</v>
+        <v>0.051256</v>
       </c>
       <c r="I13">
-        <v>0.001210588963518025</v>
+        <v>2.808575337663958E-05</v>
       </c>
       <c r="J13">
-        <v>0.00133914970902166</v>
+        <v>3.387112023419805E-05</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,772 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.431954666666666</v>
+        <v>0.237009</v>
       </c>
       <c r="N13">
-        <v>7.295864</v>
+        <v>0.7110270000000001</v>
       </c>
       <c r="O13">
-        <v>0.7723792211295388</v>
+        <v>0.0350551617135259</v>
       </c>
       <c r="P13">
-        <v>0.7723792211295388</v>
+        <v>0.03568534669256324</v>
       </c>
       <c r="Q13">
-        <v>1.796660013002666</v>
+        <v>0.004049377768</v>
       </c>
       <c r="R13">
-        <v>16.169940117024</v>
+        <v>0.03644439991200001</v>
       </c>
       <c r="S13">
-        <v>0.0009350337607500675</v>
+        <v>9.845506264643065E-07</v>
       </c>
       <c r="T13">
-        <v>0.001034331409229999</v>
+        <v>1.208702668422851E-06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>43.5079</v>
+      </c>
+      <c r="H14">
+        <v>87.0158</v>
+      </c>
+      <c r="I14">
+        <v>0.0715205331669754</v>
+      </c>
+      <c r="J14">
+        <v>0.05750200218657192</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.5</v>
+      </c>
+      <c r="M14">
+        <v>0.358189</v>
+      </c>
+      <c r="N14">
+        <v>0.716378</v>
+      </c>
+      <c r="O14">
+        <v>0.052978466298774</v>
+      </c>
+      <c r="P14">
+        <v>0.03595390511601538</v>
+      </c>
+      <c r="Q14">
+        <v>15.5840511931</v>
+      </c>
+      <c r="R14">
+        <v>62.3362047724</v>
+      </c>
+      <c r="S14">
+        <v>0.003789048156056954</v>
+      </c>
+      <c r="T14">
+        <v>0.002067421530596916</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>43.5079</v>
+      </c>
+      <c r="H15">
+        <v>87.0158</v>
+      </c>
+      <c r="I15">
+        <v>0.0715205331669754</v>
+      </c>
+      <c r="J15">
+        <v>0.05750200218657192</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.574863</v>
+      </c>
+      <c r="N15">
+        <v>1.724589</v>
+      </c>
+      <c r="O15">
+        <v>0.08502595018806307</v>
+      </c>
+      <c r="P15">
+        <v>0.08655445766079338</v>
+      </c>
+      <c r="Q15">
+        <v>25.0110819177</v>
+      </c>
+      <c r="R15">
+        <v>150.0664915062</v>
+      </c>
+      <c r="S15">
+        <v>0.006081101290478963</v>
+      </c>
+      <c r="T15">
+        <v>0.004977054613668487</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>43.5079</v>
+      </c>
+      <c r="H16">
+        <v>87.0158</v>
+      </c>
+      <c r="I16">
+        <v>0.0715205331669754</v>
+      </c>
+      <c r="J16">
+        <v>0.05750200218657192</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>5.590969</v>
+      </c>
+      <c r="N16">
+        <v>16.772907</v>
+      </c>
+      <c r="O16">
+        <v>0.8269404217996371</v>
+      </c>
+      <c r="P16">
+        <v>0.8418062905306279</v>
+      </c>
+      <c r="Q16">
+        <v>243.2513201551</v>
+      </c>
+      <c r="R16">
+        <v>1459.5079209306</v>
+      </c>
+      <c r="S16">
+        <v>0.05914321986443358</v>
+      </c>
+      <c r="T16">
+        <v>0.04840554715876216</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>43.5079</v>
+      </c>
+      <c r="H17">
+        <v>87.0158</v>
+      </c>
+      <c r="I17">
+        <v>0.0715205331669754</v>
+      </c>
+      <c r="J17">
+        <v>0.05750200218657192</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.237009</v>
+      </c>
+      <c r="N17">
+        <v>0.7110270000000001</v>
+      </c>
+      <c r="O17">
+        <v>0.0350551617135259</v>
+      </c>
+      <c r="P17">
+        <v>0.03568534669256324</v>
+      </c>
+      <c r="Q17">
+        <v>10.3117638711</v>
+      </c>
+      <c r="R17">
+        <v>61.8705832266</v>
+      </c>
+      <c r="S17">
+        <v>0.002507163856005915</v>
+      </c>
+      <c r="T17">
+        <v>0.002051978883544349</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.576426</v>
+      </c>
+      <c r="H18">
+        <v>1.729278</v>
+      </c>
+      <c r="I18">
+        <v>0.0009475588307251548</v>
+      </c>
+      <c r="J18">
+        <v>0.001142745884508224</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.5</v>
+      </c>
+      <c r="M18">
+        <v>0.358189</v>
+      </c>
+      <c r="N18">
+        <v>0.716378</v>
+      </c>
+      <c r="O18">
+        <v>0.052978466298774</v>
+      </c>
+      <c r="P18">
+        <v>0.03595390511601538</v>
+      </c>
+      <c r="Q18">
+        <v>0.206469452514</v>
+      </c>
+      <c r="R18">
+        <v>1.238816715084</v>
+      </c>
+      <c r="S18">
+        <v>5.020021357967831E-05</v>
+      </c>
+      <c r="T18">
+        <v>4.108617710332575E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.576426</v>
+      </c>
+      <c r="H19">
+        <v>1.729278</v>
+      </c>
+      <c r="I19">
+        <v>0.0009475588307251548</v>
+      </c>
+      <c r="J19">
+        <v>0.001142745884508224</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.574863</v>
+      </c>
+      <c r="N19">
+        <v>1.724589</v>
+      </c>
+      <c r="O19">
+        <v>0.08502595018806307</v>
+      </c>
+      <c r="P19">
+        <v>0.08655445766079338</v>
+      </c>
+      <c r="Q19">
+        <v>0.331365979638</v>
+      </c>
+      <c r="R19">
+        <v>2.982293816742</v>
+      </c>
+      <c r="S19">
+        <v>8.05670899414963E-05</v>
+      </c>
+      <c r="T19">
+        <v>9.890975027771295E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.576426</v>
+      </c>
+      <c r="H20">
+        <v>1.729278</v>
+      </c>
+      <c r="I20">
+        <v>0.0009475588307251548</v>
+      </c>
+      <c r="J20">
+        <v>0.001142745884508224</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>5.590969</v>
+      </c>
+      <c r="N20">
+        <v>16.772907</v>
+      </c>
+      <c r="O20">
+        <v>0.8269404217996371</v>
+      </c>
+      <c r="P20">
+        <v>0.8418062905306279</v>
+      </c>
+      <c r="Q20">
+        <v>3.222779896794</v>
+      </c>
+      <c r="R20">
+        <v>29.005019071146</v>
+      </c>
+      <c r="S20">
+        <v>0.0007835746991598305</v>
+      </c>
+      <c r="T20">
+        <v>0.0009619706740570094</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.576426</v>
+      </c>
+      <c r="H21">
+        <v>1.729278</v>
+      </c>
+      <c r="I21">
+        <v>0.0009475588307251548</v>
+      </c>
+      <c r="J21">
+        <v>0.001142745884508224</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.237009</v>
+      </c>
+      <c r="N21">
+        <v>0.7110270000000001</v>
+      </c>
+      <c r="O21">
+        <v>0.0350551617135259</v>
+      </c>
+      <c r="P21">
+        <v>0.03568534669256324</v>
+      </c>
+      <c r="Q21">
+        <v>0.136618149834</v>
+      </c>
+      <c r="R21">
+        <v>1.229563348506</v>
+      </c>
+      <c r="S21">
+        <v>3.321682804414982E-05</v>
+      </c>
+      <c r="T21">
+        <v>4.077928307017581E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.04301333333333333</v>
+      </c>
+      <c r="H22">
+        <v>0.12904</v>
+      </c>
+      <c r="I22">
+        <v>7.07075389363503E-05</v>
+      </c>
+      <c r="J22">
+        <v>8.527254087367168E-05</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.5</v>
+      </c>
+      <c r="M22">
+        <v>0.358189</v>
+      </c>
+      <c r="N22">
+        <v>0.716378</v>
+      </c>
+      <c r="O22">
+        <v>0.052978466298774</v>
+      </c>
+      <c r="P22">
+        <v>0.03595390511601538</v>
+      </c>
+      <c r="Q22">
+        <v>0.01540690285333333</v>
+      </c>
+      <c r="R22">
+        <v>0.09244141711999998</v>
+      </c>
+      <c r="S22">
+        <v>3.745976968608685E-06</v>
+      </c>
+      <c r="T22">
+        <v>3.065880843573535E-06</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.04301333333333333</v>
+      </c>
+      <c r="H23">
+        <v>0.12904</v>
+      </c>
+      <c r="I23">
+        <v>7.07075389363503E-05</v>
+      </c>
+      <c r="J23">
+        <v>8.527254087367168E-05</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.574863</v>
+      </c>
+      <c r="N23">
+        <v>1.724589</v>
+      </c>
+      <c r="O23">
+        <v>0.08502595018806307</v>
+      </c>
+      <c r="P23">
+        <v>0.08655445766079338</v>
+      </c>
+      <c r="Q23">
+        <v>0.02472677384</v>
+      </c>
+      <c r="R23">
+        <v>0.22254096456</v>
+      </c>
+      <c r="S23">
+        <v>6.01197568352265E-06</v>
+      </c>
+      <c r="T23">
+        <v>7.380718528678488E-06</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.04301333333333333</v>
+      </c>
+      <c r="H24">
+        <v>0.12904</v>
+      </c>
+      <c r="I24">
+        <v>7.07075389363503E-05</v>
+      </c>
+      <c r="J24">
+        <v>8.527254087367168E-05</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>5.590969</v>
+      </c>
+      <c r="N24">
+        <v>16.772907</v>
+      </c>
+      <c r="O24">
+        <v>0.8269404217996371</v>
+      </c>
+      <c r="P24">
+        <v>0.8418062905306279</v>
+      </c>
+      <c r="Q24">
+        <v>0.2404862132533333</v>
+      </c>
+      <c r="R24">
+        <v>2.16437591928</v>
+      </c>
+      <c r="S24">
+        <v>5.847092207243978E-05</v>
+      </c>
+      <c r="T24">
+        <v>7.178296131698691E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.04301333333333333</v>
+      </c>
+      <c r="H25">
+        <v>0.12904</v>
+      </c>
+      <c r="I25">
+        <v>7.07075389363503E-05</v>
+      </c>
+      <c r="J25">
+        <v>8.527254087367168E-05</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.237009</v>
+      </c>
+      <c r="N25">
+        <v>0.7110270000000001</v>
+      </c>
+      <c r="O25">
+        <v>0.0350551617135259</v>
+      </c>
+      <c r="P25">
+        <v>0.03568534669256324</v>
+      </c>
+      <c r="Q25">
+        <v>0.01019454712</v>
+      </c>
+      <c r="R25">
+        <v>0.09175092408</v>
+      </c>
+      <c r="S25">
+        <v>2.478664211779189E-06</v>
+      </c>
+      <c r="T25">
+        <v>3.042980184432744E-06</v>
       </c>
     </row>
   </sheetData>
